--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="717">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -323,259 +323,256 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MedicationRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MedicationRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MedicationRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:treatmentIntent</t>
+  </si>
+  <si>
+    <t>treatmentIntent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrTeatmentIntent}
+</t>
+  </si>
+  <si>
+    <t>overall treatment intent</t>
+  </si>
+  <si>
+    <t>the overall intention of the treatment</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>MedicationRequest.extension:treatmentIntent.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MedicationRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:treatmentIntent.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:treatmentIntent.url</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/FrTeatmentIntent</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:treatmentIntent.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t>TreatmentIntent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MedicationRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MedicationRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension</t>
+    <t>Value of overall treatment intent</t>
+  </si>
+  <si>
+    <t>overall intention of treatment Coding</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:treatmentIntent.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:treatmentIntent.value[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.value[x].extension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:treatmentIntent</t>
-  </si>
-  <si>
-    <t>treatmentIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrTeatmentIntent}
-</t>
-  </si>
-  <si>
-    <t>overall treatment intent</t>
-  </si>
-  <si>
-    <t>the overall intention of the treatment</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:treatmentIntent.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:treatmentIntent.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:treatmentIntent.url</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/FrTeatmentIntent</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:treatmentIntent.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>TreatmentIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of overall treatment intent</t>
-  </si>
-  <si>
-    <t>overall intention of treatment Coding</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:treatmentIntent.value[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:treatmentIntent.value[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MedicationRequest.extension:treatmentIntent.value[x].coding</t>
@@ -750,9 +747,6 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>MedicationRequest.intent</t>
@@ -821,9 +815,6 @@
   </si>
   <si>
     <t>Indicates how quickly the Medication Request should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Identifies the level of importance to be assigned to actioning the request.</t>
@@ -929,10 +920,6 @@
     <t>The subject on a medication request is mandatory.  For the secondary use case where the actual subject is not provided, there still must be an anonymized subject specified.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Request.subject</t>
   </si>
   <si>
@@ -991,9 +978,6 @@
     <t>Include additional information (for example, patient height and weight) that supports the ordering of the medication.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Request.supportingInfo</t>
   </si>
   <si>
@@ -1180,9 +1164,6 @@
     <t>The URL pointing to a protocol, guideline, orderset, or other definition that is adhered to in whole or in part by this MedicationRequest.</t>
   </si>
   <si>
-    <t>see [Canonical References](http://hl7.org/fhir/R4/references.html#canonical)</t>
-  </si>
-  <si>
     <t>Request.instantiates</t>
   </si>
   <si>
@@ -1196,9 +1177,6 @@
   </si>
   <si>
     <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this MedicationRequest.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>MedicationRequest.basedOn</t>
@@ -1238,9 +1216,6 @@
     <t>.outboundRelationship(typeCode=COMP].target[classCode=SBADM, moodCode=INT].id</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>MedicationRequest.courseOfTherapyType</t>
   </si>
   <si>
@@ -1294,9 +1269,6 @@
     <t>Extra information about the prescription that could not be conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
     <t>Request.note</t>
   </si>
   <si>
@@ -1364,9 +1336,6 @@
     <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
   </si>
   <si>
-    <t>32 bit number; for values larger than this, use decimal</t>
-  </si>
-  <si>
     <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
   </si>
   <si>
@@ -1531,9 +1500,6 @@
     <t>How drug should enter body.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
@@ -1620,9 +1586,6 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1705,10 +1668,6 @@
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
     <t>.maxDoseQuantity</t>
   </si>
   <si>
@@ -1839,9 +1798,6 @@
     <t>The amount or quantity to provide as part of the first dispense.</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
     <t>Supply.quantity[moodCode=RQO]</t>
   </si>
   <si>
@@ -1858,16 +1814,6 @@
     <t>The length of time that the first dispense is expected to last.</t>
   </si>
   <si>
-    <t>Appropriate units for Duration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}drt-1:There SHALL be a code if there is a value and it SHALL be an expression of time.  If system is present, it SHALL be UCUM. {code.exists() implies ((system = %ucum) and value.exists())}</t>
-  </si>
-  <si>
     <t>Supply.effectivetime[moodCode=RQO]</t>
   </si>
   <si>
@@ -1899,19 +1845,12 @@
     <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
   </si>
   <si>
     <t>effectiveTime</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.validityPeriod.id</t>
   </si>
   <si>
@@ -1933,8 +1872,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>./low</t>
@@ -2128,8 +2067,8 @@
     <t>Quantity.system</t>
   </si>
   <si>
-    <t>ele-1
-qty-3</t>
+    <t xml:space="preserve">qty-3
+</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -3112,11 +3051,11 @@
         <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
@@ -3124,7 +3063,7 @@
         <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>20</v>
@@ -3135,10 +3074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3161,16 +3100,16 @@
         <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -3220,7 +3159,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -3229,11 +3168,11 @@
         <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
@@ -3241,7 +3180,7 @@
         <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>20</v>
@@ -3252,10 +3191,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3278,16 +3217,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3313,32 +3252,32 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
@@ -3346,11 +3285,11 @@
         <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
@@ -3358,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>20</v>
@@ -3369,14 +3308,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3395,16 +3334,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3454,7 +3393,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -3463,11 +3402,11 @@
         <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
@@ -3475,7 +3414,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>20</v>
@@ -3486,14 +3425,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3512,16 +3451,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3571,7 +3510,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -3592,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>20</v>
@@ -3603,14 +3542,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3629,17 +3568,15 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -3676,19 +3613,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -3697,10 +3632,10 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3709,7 +3644,7 @@
         <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>20</v>
@@ -3720,13 +3655,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -3748,13 +3683,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3805,7 +3740,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3814,10 +3749,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3837,10 +3772,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3863,13 +3798,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3920,7 +3855,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3941,7 +3876,7 @@
         <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>20</v>
@@ -3952,10 +3887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3978,13 +3913,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4023,19 +3958,19 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -4044,10 +3979,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -4067,10 +4002,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4093,16 +4028,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4110,7 +4045,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>20</v>
@@ -4152,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -4173,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
@@ -4184,17 +4119,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
@@ -4212,13 +4147,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4269,7 +4204,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -4278,11 +4213,11 @@
         <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
@@ -4290,7 +4225,7 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -4301,10 +4236,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4327,13 +4262,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4384,7 +4319,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -4405,7 +4340,7 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -4416,14 +4351,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4442,16 +4377,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4489,19 +4424,19 @@
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4510,10 +4445,10 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
@@ -4522,7 +4457,7 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>20</v>
@@ -4533,10 +4468,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4559,19 +4494,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4596,31 +4531,31 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4629,11 +4564,11 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
       </c>
@@ -4641,21 +4576,21 @@
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4678,19 +4613,19 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4739,46 +4674,46 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4797,19 +4732,19 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4846,19 +4781,19 @@
         <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4867,10 +4802,10 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
@@ -4879,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4890,10 +4825,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4916,16 +4851,16 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4975,7 +4910,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4984,33 +4919,33 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5033,16 +4968,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5068,55 +5003,55 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -5124,10 +5059,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5150,16 +5085,16 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5185,66 +5120,66 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5267,16 +5202,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5302,55 +5237,55 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -5358,10 +5293,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5384,16 +5319,16 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5419,13 +5354,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -5443,7 +5378,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5452,33 +5387,33 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5501,17 +5436,15 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -5536,55 +5469,55 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -5592,10 +5525,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5618,16 +5551,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5677,7 +5610,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5686,11 +5619,11 @@
         <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5698,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5709,10 +5642,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5735,13 +5668,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5792,7 +5725,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5801,11 +5734,11 @@
         <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
@@ -5813,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5824,10 +5757,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5850,16 +5783,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5909,7 +5842,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5918,33 +5851,33 @@
         <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5967,16 +5900,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6026,7 +5959,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>89</v>
@@ -6035,33 +5968,33 @@
         <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6084,16 +6017,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6143,7 +6076,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -6152,33 +6085,33 @@
         <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6201,17 +6134,15 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -6260,7 +6191,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6269,22 +6200,22 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -6292,10 +6223,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6318,13 +6249,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6375,42 +6306,42 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6433,17 +6364,15 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6492,31 +6421,31 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6524,10 +6453,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6550,17 +6479,15 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6609,31 +6536,31 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="AN34" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6641,10 +6568,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6667,16 +6594,16 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6702,13 +6629,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6726,7 +6653,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6735,33 +6662,33 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6784,17 +6711,15 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6843,31 +6768,31 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6875,10 +6800,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6901,16 +6826,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6936,13 +6861,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6960,7 +6885,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6969,33 +6894,33 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7018,16 +6943,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7077,7 +7002,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7086,22 +7011,22 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -7109,10 +7034,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7135,17 +7060,15 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -7194,7 +7117,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7203,19 +7126,19 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -7226,10 +7149,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7252,17 +7175,15 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -7311,7 +7232,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7320,11 +7241,11 @@
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
@@ -7332,7 +7253,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -7343,10 +7264,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7369,17 +7290,15 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7428,7 +7347,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7437,19 +7356,19 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -7460,10 +7379,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7486,17 +7405,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7545,7 +7464,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7554,33 +7473,33 @@
         <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>390</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7603,16 +7522,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7638,13 +7557,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7662,7 +7581,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7671,11 +7590,11 @@
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7683,21 +7602,21 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7720,17 +7639,15 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7779,7 +7696,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7788,19 +7705,19 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -7811,10 +7728,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7837,17 +7754,15 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7896,7 +7811,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7905,33 +7820,33 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK45" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7954,16 +7869,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8013,7 +7928,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -8022,19 +7937,19 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -8045,10 +7960,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8071,13 +7986,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8128,7 +8043,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8149,7 +8064,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -8160,14 +8075,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8186,16 +8101,16 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8233,19 +8148,19 @@
         <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8254,10 +8169,10 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -8266,7 +8181,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -8277,14 +8192,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8303,19 +8218,19 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -8364,7 +8279,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8373,10 +8288,10 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -8385,7 +8300,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -8396,10 +8311,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8422,19 +8337,17 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -8483,7 +8396,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8492,11 +8405,11 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
@@ -8504,21 +8417,21 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8541,19 +8454,17 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8602,7 +8513,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8611,11 +8522,11 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8623,21 +8534,21 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8660,19 +8571,19 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8697,13 +8608,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8721,7 +8632,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8730,11 +8641,11 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8742,21 +8653,21 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8779,17 +8690,15 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8838,7 +8747,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8847,11 +8756,11 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8859,21 +8768,21 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8896,19 +8805,19 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8957,7 +8866,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8966,11 +8875,11 @@
         <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8978,21 +8887,21 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9015,16 +8924,16 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9050,13 +8959,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -9074,7 +8983,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -9083,11 +8992,11 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
@@ -9095,21 +9004,21 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9132,19 +9041,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -9169,13 +9078,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -9193,7 +9102,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9202,11 +9111,11 @@
         <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
@@ -9214,21 +9123,21 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9251,19 +9160,17 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9288,11 +9195,11 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -9310,7 +9217,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9319,11 +9226,11 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
@@ -9331,21 +9238,21 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9368,19 +9275,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9405,11 +9312,11 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9427,7 +9334,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9436,11 +9343,11 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9448,21 +9355,21 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9485,13 +9392,13 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9542,7 +9449,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9551,11 +9458,11 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9563,21 +9470,21 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9600,13 +9507,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9657,7 +9564,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9678,7 +9585,7 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>20</v>
@@ -9689,14 +9596,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9715,16 +9622,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9762,19 +9669,19 @@
         <v>20</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9783,10 +9690,10 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -9795,7 +9702,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -9806,10 +9713,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9832,19 +9739,17 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9869,13 +9774,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9893,7 +9798,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9902,11 +9807,11 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9914,21 +9819,21 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>515</v>
+        <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9951,19 +9856,19 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -10012,7 +9917,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10021,11 +9926,11 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
       </c>
@@ -10033,21 +9938,21 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10070,19 +9975,19 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -10131,7 +10036,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10140,11 +10045,11 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
       </c>
@@ -10152,21 +10057,21 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10189,19 +10094,19 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -10250,7 +10155,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10259,11 +10164,11 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
       </c>
@@ -10271,21 +10176,21 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10308,13 +10213,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10365,7 +10270,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10386,7 +10291,7 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>20</v>
@@ -10397,14 +10302,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10423,16 +10328,16 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10470,19 +10375,19 @@
         <v>20</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10491,10 +10396,10 @@
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
@@ -10503,7 +10408,7 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -10514,10 +10419,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10540,16 +10445,16 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10599,7 +10504,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10608,10 +10513,10 @@
         <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
@@ -10620,21 +10525,21 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10657,16 +10562,16 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10716,7 +10621,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10725,10 +10630,10 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
@@ -10737,21 +10642,21 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10774,19 +10679,19 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10835,7 +10740,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10844,10 +10749,10 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
@@ -10856,21 +10761,21 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10893,19 +10798,19 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10954,7 +10859,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10963,10 +10868,10 @@
         <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
@@ -10975,21 +10880,21 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11012,13 +10917,13 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11069,7 +10974,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11078,19 +10983,19 @@
         <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ72" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>20</v>
@@ -11101,10 +11006,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11127,13 +11032,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11184,7 +11089,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11205,7 +11110,7 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>20</v>
@@ -11216,14 +11121,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11242,16 +11147,16 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11289,19 +11194,19 @@
         <v>20</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11310,10 +11215,10 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>20</v>
@@ -11322,7 +11227,7 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>20</v>
@@ -11333,14 +11238,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11359,19 +11264,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11420,7 +11325,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11429,10 +11334,10 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
@@ -11441,7 +11346,7 @@
         <v>20</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>20</v>
@@ -11452,10 +11357,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11478,16 +11383,16 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11537,7 +11442,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11546,11 +11451,11 @@
         <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
@@ -11558,7 +11463,7 @@
         <v>20</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>20</v>
@@ -11569,10 +11474,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11595,13 +11500,13 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11652,7 +11557,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11673,7 +11578,7 @@
         <v>20</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>20</v>
@@ -11684,14 +11589,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11710,16 +11615,16 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11757,19 +11662,19 @@
         <v>20</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11778,10 +11683,10 @@
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>20</v>
@@ -11790,7 +11695,7 @@
         <v>20</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>20</v>
@@ -11801,14 +11706,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11827,19 +11732,19 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11888,7 +11793,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11897,10 +11802,10 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>20</v>
@@ -11909,7 +11814,7 @@
         <v>20</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>20</v>
@@ -11920,10 +11825,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11946,17 +11851,15 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -12005,7 +11908,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -12014,11 +11917,11 @@
         <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ80" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AK80" t="s" s="2">
         <v>20</v>
       </c>
@@ -12026,21 +11929,21 @@
         <v>20</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>554</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12063,17 +11966,15 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -12098,13 +11999,13 @@
         <v>20</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>590</v>
+        <v>20</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>591</v>
+        <v>20</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -12122,7 +12023,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12131,11 +12032,11 @@
         <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ81" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="AK81" t="s" s="2">
         <v>20</v>
       </c>
@@ -12143,21 +12044,21 @@
         <v>20</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>554</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12180,17 +12081,15 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12239,7 +12138,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12248,11 +12147,11 @@
         <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ82" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="AK82" t="s" s="2">
         <v>20</v>
       </c>
@@ -12260,21 +12159,21 @@
         <v>20</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>554</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12297,19 +12196,19 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -12358,7 +12257,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12367,33 +12266,33 @@
         <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ83" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AK83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>606</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12416,13 +12315,13 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12473,7 +12372,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12494,7 +12393,7 @@
         <v>20</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>20</v>
@@ -12505,14 +12404,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12531,16 +12430,16 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12578,19 +12477,19 @@
         <v>20</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12599,10 +12498,10 @@
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>20</v>
@@ -12611,7 +12510,7 @@
         <v>20</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>20</v>
@@ -12622,10 +12521,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12648,16 +12547,16 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12707,7 +12606,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12716,10 +12615,10 @@
         <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
@@ -12728,21 +12627,21 @@
         <v>20</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12765,23 +12664,23 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q87" t="s" s="2">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>20</v>
@@ -12826,7 +12725,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12835,10 +12734,10 @@
         <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
@@ -12847,21 +12746,21 @@
         <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12884,16 +12783,16 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12943,7 +12842,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12952,33 +12851,33 @@
         <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ88" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13001,17 +12900,15 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -13060,7 +12957,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13069,33 +12966,33 @@
         <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ89" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AK89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>638</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13118,16 +13015,16 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13153,13 +13050,13 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>590</v>
+        <v>20</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>591</v>
+        <v>20</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -13177,7 +13074,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13186,33 +13083,33 @@
         <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ90" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="AK90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>554</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13235,13 +13132,13 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13292,7 +13189,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13313,7 +13210,7 @@
         <v>20</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>20</v>
@@ -13324,14 +13221,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13350,16 +13247,16 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13397,19 +13294,19 @@
         <v>20</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13418,10 +13315,10 @@
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>20</v>
@@ -13430,7 +13327,7 @@
         <v>20</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>20</v>
@@ -13441,10 +13338,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13467,19 +13364,19 @@
         <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13528,7 +13425,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13537,11 +13434,11 @@
         <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ93" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK93" t="s" s="2">
         <v>20</v>
       </c>
@@ -13549,21 +13446,21 @@
         <v>20</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13586,25 +13483,23 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q94" t="s" s="2">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>20</v>
@@ -13625,13 +13520,13 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13649,7 +13544,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13658,11 +13553,11 @@
         <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ94" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK94" t="s" s="2">
         <v>20</v>
       </c>
@@ -13670,21 +13565,21 @@
         <v>20</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13707,19 +13602,17 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13768,7 +13661,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13777,11 +13670,11 @@
         <v>89</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK95" t="s" s="2">
         <v>20</v>
       </c>
@@ -13789,21 +13682,21 @@
         <v>20</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13826,19 +13719,17 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13887,7 +13778,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13896,10 +13787,10 @@
         <v>89</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>20</v>
@@ -13908,21 +13799,21 @@
         <v>20</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13945,19 +13836,19 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -14006,7 +13897,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14015,11 +13906,11 @@
         <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ97" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK97" t="s" s="2">
         <v>20</v>
       </c>
@@ -14027,21 +13918,21 @@
         <v>20</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14064,17 +13955,15 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -14123,7 +14012,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -14132,11 +14021,11 @@
         <v>89</v>
       </c>
       <c r="AI98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ98" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK98" t="s" s="2">
         <v>20</v>
       </c>
@@ -14144,10 +14033,10 @@
         <v>20</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>20</v>
@@ -14155,10 +14044,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14181,13 +14070,13 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14238,7 +14127,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14247,19 +14136,19 @@
         <v>89</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>20</v>
@@ -14270,10 +14159,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14296,13 +14185,13 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14353,7 +14242,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14374,7 +14263,7 @@
         <v>20</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>20</v>
@@ -14385,14 +14274,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14411,16 +14300,16 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14458,19 +14347,19 @@
         <v>20</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14479,10 +14368,10 @@
         <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>20</v>
@@ -14491,7 +14380,7 @@
         <v>20</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>20</v>
@@ -14502,14 +14391,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14528,19 +14417,19 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>20</v>
@@ -14589,7 +14478,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14598,10 +14487,10 @@
         <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>20</v>
@@ -14610,7 +14499,7 @@
         <v>20</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>20</v>
@@ -14621,10 +14510,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14647,16 +14536,16 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14682,13 +14571,13 @@
         <v>20</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>20</v>
@@ -14706,7 +14595,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>89</v>
@@ -14715,33 +14604,33 @@
         <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK103" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>707</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14764,17 +14653,15 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>20</v>
@@ -14799,13 +14686,13 @@
         <v>20</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>20</v>
@@ -14823,7 +14710,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14832,33 +14719,33 @@
         <v>89</v>
       </c>
       <c r="AI104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>715</v>
+        <v>696</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14881,17 +14768,15 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -14940,7 +14825,7 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14949,19 +14834,19 @@
         <v>89</v>
       </c>
       <c r="AI105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ105" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK105" t="s" s="2">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>20</v>
@@ -14972,14 +14857,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14998,16 +14883,16 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15057,7 +14942,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15066,11 +14951,11 @@
         <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ106" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK106" t="s" s="2">
         <v>20</v>
       </c>
@@ -15078,7 +14963,7 @@
         <v>20</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>20</v>
@@ -15089,10 +14974,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15115,16 +15000,16 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15174,7 +15059,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15183,19 +15068,19 @@
         <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AK107" t="s" s="2">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>20</v>
